--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF61C87-5C1B-4145-9253-84A2F32682E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53E17B1-95F4-40F0-82B1-5351AF721BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>2L5LT4ST_37T</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>ω</t>
+  </si>
+  <si>
+    <t>Nmm</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
@@ -158,10 +179,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5051956-950B-4914-B9DC-D73D560B37F6}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="T16" sqref="T15:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +668,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
@@ -660,20 +681,20 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -744,15 +765,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -775,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -797,8 +818,17 @@
       <c r="G19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>200.124</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -819,6 +849,35 @@
       </c>
       <c r="G20" t="s">
         <v>22</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <f>Q19/Q20</f>
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
